--- a/ROC First Step.xlsx
+++ b/ROC First Step.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben galili\Dropbox\IDC ML Undergrad\שיעורי בית\HW5\HW5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hilla/Documents/B/ML/9/HW5/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>TPR</t>
   </si>
@@ -46,6 +52,9 @@
   <si>
     <t>selected kernel</t>
   </si>
+  <si>
+    <t>Poly 4</t>
+  </si>
 </sst>
 </file>
 
@@ -55,14 +64,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -122,8 +131,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="טוב" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -146,7 +155,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -214,7 +223,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -266,6 +275,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -275,6 +302,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -288,14 +333,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="461465104"/>
-        <c:axId val="461477072"/>
+        <c:axId val="2097475152"/>
+        <c:axId val="2097434928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="461465104"/>
+        <c:axId val="2097475152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -366,7 +411,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -404,19 +449,19 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461477072"/>
+        <c:crossAx val="2097434928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461477072"/>
+        <c:axId val="2097434928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -487,7 +532,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -525,10 +570,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461465104"/>
+        <c:crossAx val="2097475152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -567,7 +612,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -581,7 +626,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -645,7 +690,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -712,8 +757,62 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7647</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41176</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41176</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41176</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41176</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41176</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41176</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41176</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41176</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.41176</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.41176</c:v>
+                </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,8 +823,62 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.775</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.725</c:v>
+                </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -740,14 +893,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="461463472"/>
-        <c:axId val="461462928"/>
+        <c:axId val="2097670928"/>
+        <c:axId val="2097490160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="461463472"/>
+        <c:axId val="2097670928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -818,7 +971,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -856,20 +1009,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461462928"/>
+        <c:crossAx val="2097490160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461462928"/>
+        <c:axId val="2097490160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -940,7 +1093,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -978,10 +1131,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461463472"/>
+        <c:crossAx val="2097670928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1020,7 +1173,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2165,8 +2318,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4922520" y="365760"/>
-          <a:ext cx="4572000" cy="4065270"/>
+          <a:off x="4940300" y="396240"/>
+          <a:ext cx="4589780" cy="4415790"/>
           <a:chOff x="5707380" y="365760"/>
           <a:chExt cx="4572000" cy="4065270"/>
         </a:xfrm>
@@ -2246,6 +2399,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>327118</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>70994</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="מחבר ישר 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4940300" y="396240"/>
+          <a:ext cx="3794218" cy="3294254"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2516,16 +2713,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2537,67 +2734,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.52939999999999998</v>
+      </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.52939999999999998</v>
+      </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.41170000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9">
         <v>0.1</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.70589999999999997</v>
+      </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>6</v>
       </c>
@@ -2611,135 +2832,209 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D17">
         <v>3.3000000000000003E-5</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>6.6000000000000005E-5</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.94116999999999995</v>
+      </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D19">
         <v>1E-4</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.76470000000000005</v>
+      </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D20">
         <v>3.3E-4</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="E20" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.41176000000000001</v>
+      </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D21">
         <v>6.6E-4</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="E21" s="4">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.41176000000000001</v>
+      </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>1E-3</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="E22" s="4">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.41176000000000001</v>
+      </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D23">
         <v>3.3E-3</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="E23" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.41176000000000001</v>
+      </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D24">
         <v>6.6E-3</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="E24" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.41176000000000001</v>
+      </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D25">
         <v>0.01</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="E25" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.41176000000000001</v>
+      </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D26">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.41176000000000001</v>
+      </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D27">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="E27" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.41176000000000001</v>
+      </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D28">
         <v>0.1</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="E28" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.41176000000000001</v>
+      </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D29">
         <v>0.33</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="E29" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.41176000000000001</v>
+      </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D30">
         <v>0.66</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="E30" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.41176000000000001</v>
+      </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="E31" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.41176000000000001</v>
+      </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D32">
         <v>3.33</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="E32" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.41176000000000001</v>
+      </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="1"/>
       <c r="D33" s="1">
         <v>6.66</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="E33" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.41176000000000001</v>
+      </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D34">
         <v>10</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="E34" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.41176000000000001</v>
+      </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E35">
         <v>0</v>
       </c>
